--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf1-Fgfr4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H2">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J2">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.132884</v>
+        <v>0.08378199999999998</v>
       </c>
       <c r="N2">
-        <v>0.398652</v>
+        <v>0.251346</v>
       </c>
       <c r="O2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="P2">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="Q2">
-        <v>0.09134144956266668</v>
+        <v>0.1449259081086667</v>
       </c>
       <c r="R2">
-        <v>0.822073046064</v>
+        <v>1.304333172978</v>
       </c>
       <c r="S2">
-        <v>0.0003181349017906352</v>
+        <v>0.0004873391081879911</v>
       </c>
       <c r="T2">
-        <v>0.0003181349017906351</v>
+        <v>0.0004873391081879911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H3">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J3">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07352966666666666</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N3">
         <v>0.220589</v>
       </c>
       <c r="O3">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="P3">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
       <c r="Q3">
-        <v>0.05054262619422222</v>
+        <v>0.1271914458307778</v>
       </c>
       <c r="R3">
-        <v>0.4548836357479999</v>
+        <v>1.144723012477</v>
       </c>
       <c r="S3">
-        <v>0.0001760358905789872</v>
+        <v>0.0004277038287304386</v>
       </c>
       <c r="T3">
-        <v>0.0001760358905789872</v>
+        <v>0.0004277038287304385</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6873773333333334</v>
+        <v>1.729797666666667</v>
       </c>
       <c r="H4">
-        <v>2.062132</v>
+        <v>5.189393000000001</v>
       </c>
       <c r="I4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="J4">
-        <v>0.02660947569874856</v>
+        <v>0.06436583050179444</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>32.724855</v>
       </c>
       <c r="O4">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="P4">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
       <c r="Q4">
-        <v>7.498107854540001</v>
+        <v>18.869125940335</v>
       </c>
       <c r="R4">
-        <v>67.48297069086</v>
+        <v>169.822133463015</v>
       </c>
       <c r="S4">
-        <v>0.02611530490637894</v>
+        <v>0.06345078756487602</v>
       </c>
       <c r="T4">
-        <v>0.02611530490637893</v>
+        <v>0.063450787564876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>17.741954</v>
       </c>
       <c r="I5">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J5">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.132884</v>
+        <v>0.08378199999999998</v>
       </c>
       <c r="N5">
-        <v>0.398652</v>
+        <v>0.251346</v>
       </c>
       <c r="O5">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="P5">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="Q5">
-        <v>0.7858739384453334</v>
+        <v>0.4954854633426666</v>
       </c>
       <c r="R5">
-        <v>7.072865446008</v>
+        <v>4.459369170083999</v>
       </c>
       <c r="S5">
-        <v>0.002737135543875933</v>
+        <v>0.001666157880097414</v>
       </c>
       <c r="T5">
-        <v>0.002737135543875933</v>
+        <v>0.001666157880097414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.741954</v>
       </c>
       <c r="I6">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J6">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,16 +800,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07352966666666666</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N6">
         <v>0.220589</v>
       </c>
       <c r="O6">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="P6">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
       <c r="Q6">
         <v>0.4348533212117778</v>
@@ -818,10 +818,10 @@
         <v>3.913679890906</v>
       </c>
       <c r="S6">
-        <v>0.001514559045202453</v>
+        <v>0.001462271532520146</v>
       </c>
       <c r="T6">
-        <v>0.001514559045202452</v>
+        <v>0.001462271532520146</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.741954</v>
       </c>
       <c r="I7">
-        <v>0.2289398029860915</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="J7">
-        <v>0.2289398029860914</v>
+        <v>0.2200595722726403</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>32.724855</v>
       </c>
       <c r="O7">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="P7">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
       <c r="Q7">
         <v>64.51143022962999</v>
@@ -880,10 +880,10 @@
         <v>580.60287206667</v>
       </c>
       <c r="S7">
-        <v>0.2246881083970131</v>
+        <v>0.2169311428600227</v>
       </c>
       <c r="T7">
-        <v>0.224688108397013</v>
+        <v>0.2169311428600227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,43 +909,43 @@
         <v>19.230689</v>
       </c>
       <c r="H8">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I8">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J8">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.132884</v>
+        <v>0.08378199999999998</v>
       </c>
       <c r="N8">
-        <v>0.398652</v>
+        <v>0.251346</v>
       </c>
       <c r="O8">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="P8">
-        <v>0.01195569974366677</v>
+        <v>0.007571394704126512</v>
       </c>
       <c r="Q8">
-        <v>2.555450877076</v>
+        <v>1.611185585798</v>
       </c>
       <c r="R8">
-        <v>22.999057893684</v>
+        <v>14.500670272182</v>
       </c>
       <c r="S8">
-        <v>0.008900429298000199</v>
+        <v>0.005417897715841107</v>
       </c>
       <c r="T8">
-        <v>0.008900429298000197</v>
+        <v>0.005417897715841107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>19.230689</v>
       </c>
       <c r="H9">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I9">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J9">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -986,16 +986,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.07352966666666666</v>
+        <v>0.07352966666666667</v>
       </c>
       <c r="N9">
         <v>0.220589</v>
       </c>
       <c r="O9">
-        <v>0.006615533976389703</v>
+        <v>0.006644889460697858</v>
       </c>
       <c r="P9">
-        <v>0.006615533976389702</v>
+        <v>0.006644889460697857</v>
       </c>
       <c r="Q9">
         <v>1.414026151940333</v>
@@ -1004,10 +1004,10 @@
         <v>12.726235367463</v>
       </c>
       <c r="S9">
-        <v>0.004924939040608264</v>
+        <v>0.004754914099447273</v>
       </c>
       <c r="T9">
-        <v>0.004924939040608263</v>
+        <v>0.004754914099447272</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>19.230689</v>
       </c>
       <c r="H10">
-        <v>57.69206700000001</v>
+        <v>57.69206699999999</v>
       </c>
       <c r="I10">
-        <v>0.7444507213151601</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="J10">
-        <v>0.74445072131516</v>
+        <v>0.7155745972255653</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>32.724855</v>
       </c>
       <c r="O10">
-        <v>0.9814287662799436</v>
+        <v>0.9857837158351757</v>
       </c>
       <c r="P10">
-        <v>0.9814287662799435</v>
+        <v>0.9857837158351755</v>
       </c>
       <c r="Q10">
         <v>209.773836358365</v>
@@ -1066,10 +1066,10 @@
         <v>1887.964527225285</v>
       </c>
       <c r="S10">
-        <v>0.7306253529765516</v>
+        <v>0.7054017854102769</v>
       </c>
       <c r="T10">
-        <v>0.7306253529765515</v>
+        <v>0.7054017854102769</v>
       </c>
     </row>
   </sheetData>
